--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/123.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/123.xlsx
@@ -479,13 +479,13 @@
         <v>-0.354207064182131</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.76725831217514</v>
+        <v>-1.616151074431486</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1097165338209318</v>
+        <v>-0.1482159467786227</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001783751022241972</v>
+        <v>0.0742282232381615</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3550926387958279</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.725875194257785</v>
+        <v>-1.859593593507352</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1369287547347232</v>
+        <v>-0.2442314894743322</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003248170567114059</v>
+        <v>0.04217506191302081</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3554972246359757</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.756609707079796</v>
+        <v>-1.945940673635251</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1795378132123425</v>
+        <v>-0.3368808799550692</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02197700478801667</v>
+        <v>-0.02789079566976584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3447866650539069</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.794308294188917</v>
+        <v>-2.043644476764199</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1284691549482276</v>
+        <v>-0.2433050199663519</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01358937564137738</v>
+        <v>0.01801488406567674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3134839645512301</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.809731358341845</v>
+        <v>-1.915839258475704</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04803037641598672</v>
+        <v>-0.3006509818355578</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03646262086078305</v>
+        <v>-0.02906855249656634</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2576034902525621</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605349379246278</v>
+        <v>-1.590356309170457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1534569191477342</v>
+        <v>-0.0766149188524612</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08004755242119926</v>
+        <v>0.006178763412703925</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1801973537716322</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.299887076155285</v>
+        <v>-1.364961952840242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2124862620847648</v>
+        <v>-0.06794184682910381</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03849487655570758</v>
+        <v>-0.02079436859580219</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08590882488329246</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8164371112549973</v>
+        <v>-1.013792804154427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2339707179232151</v>
+        <v>0.04399384537108351</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08267448077595316</v>
+        <v>-0.1774903095004992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.02108125816841329</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1892093253835364</v>
+        <v>-0.6201737862876234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2704085989934976</v>
+        <v>0.1007811199003882</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05720541315630776</v>
+        <v>-0.1316334234191965</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1391685993549241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5834790526062454</v>
+        <v>-0.2758863725975564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1285355602958086</v>
+        <v>0.08498112476922975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003926326353473347</v>
+        <v>0.04089422849184988</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.270587491013873</v>
       </c>
       <c r="E12" t="n">
-        <v>1.505900517054969</v>
+        <v>0.4707962075770418</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1010135756844138</v>
+        <v>0.01765381102504189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1293900591639326</v>
+        <v>0.1714020052990156</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4183531577051858</v>
       </c>
       <c r="E13" t="n">
-        <v>2.322497084563843</v>
+        <v>0.8677673494832525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2074429040149196</v>
+        <v>0.1088887954564001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2412617096930614</v>
+        <v>0.2374198193502254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5811798694244154</v>
       </c>
       <c r="E14" t="n">
-        <v>3.176460442333688</v>
+        <v>1.334603075148923</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4840608384611431</v>
+        <v>-0.2609207489521894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4146944838884019</v>
+        <v>0.4907833081540756</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7581600162726759</v>
       </c>
       <c r="E15" t="n">
-        <v>4.095818275223105</v>
+        <v>2.009078976165349</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8398226898428713</v>
+        <v>-0.6344666674265375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5662152478508917</v>
+        <v>0.5166323563553351</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9469043871494879</v>
       </c>
       <c r="E16" t="n">
-        <v>4.897948134200193</v>
+        <v>2.844046354457875</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.124867288359046</v>
+        <v>-0.9718424600076955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7375315972979165</v>
+        <v>0.6157316579926828</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.139622991081499</v>
       </c>
       <c r="E17" t="n">
-        <v>5.498740738100039</v>
+        <v>3.198738404972587</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.431647020111814</v>
+        <v>-1.137618290027141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9132046101389526</v>
+        <v>0.6165959155916347</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.328242976527751</v>
       </c>
       <c r="E18" t="n">
-        <v>5.997053250051324</v>
+        <v>3.845392164398474</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.805533274323788</v>
+        <v>-1.358405915485877</v>
       </c>
       <c r="G18" t="n">
-        <v>1.060195493235235</v>
+        <v>0.6787279250112827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.511910896428393</v>
       </c>
       <c r="E19" t="n">
-        <v>6.331212930903989</v>
+        <v>4.08234146794968</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.229156120041858</v>
+        <v>-1.71013253167024</v>
       </c>
       <c r="G19" t="n">
-        <v>1.264542706852227</v>
+        <v>0.9560381194256152</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.690521368249087</v>
       </c>
       <c r="E20" t="n">
-        <v>6.532151297858637</v>
+        <v>4.513695668166209</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.628440081154298</v>
+        <v>-1.899980101038901</v>
       </c>
       <c r="G20" t="n">
-        <v>1.466503300861105</v>
+        <v>1.131614154879048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.859400317231747</v>
       </c>
       <c r="E21" t="n">
-        <v>6.765347149565136</v>
+        <v>4.930575230882154</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.919266727686044</v>
+        <v>-2.16802011108734</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588364232234013</v>
+        <v>1.305884960084241</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.01059148041078</v>
       </c>
       <c r="E22" t="n">
-        <v>6.851542359444525</v>
+        <v>5.189435324824857</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.29639349045358</v>
+        <v>-2.585806625849609</v>
       </c>
       <c r="G22" t="n">
-        <v>1.750541530260645</v>
+        <v>1.226994160229586</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.134422568136029</v>
       </c>
       <c r="E23" t="n">
-        <v>6.867212441471536</v>
+        <v>5.369662005438494</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.643526489061015</v>
+        <v>-2.75549936645513</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83923009586658</v>
+        <v>1.49022067629713</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.225356921216265</v>
       </c>
       <c r="E24" t="n">
-        <v>6.862969833244076</v>
+        <v>5.509248451519055</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.779785512889577</v>
+        <v>-2.903030639271011</v>
       </c>
       <c r="G24" t="n">
-        <v>1.935107796489344</v>
+        <v>1.632714614243748</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.283117734360382</v>
       </c>
       <c r="E25" t="n">
-        <v>6.823368903544178</v>
+        <v>5.746745463837981</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.942161645056828</v>
+        <v>-3.094168190870994</v>
       </c>
       <c r="G25" t="n">
-        <v>1.998599319097464</v>
+        <v>1.656978478606139</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.309212924436291</v>
       </c>
       <c r="E26" t="n">
-        <v>6.669227310433702</v>
+        <v>5.600829260974129</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.967693534506179</v>
+        <v>-3.201643838122461</v>
       </c>
       <c r="G26" t="n">
-        <v>2.054165532431919</v>
+        <v>1.748046344772069</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.304942030062061</v>
       </c>
       <c r="E27" t="n">
-        <v>6.497007668464414</v>
+        <v>5.647238125267889</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.997811417523998</v>
+        <v>-3.180205126334767</v>
       </c>
       <c r="G27" t="n">
-        <v>1.984392436773971</v>
+        <v>1.689440286784701</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.272136853362421</v>
       </c>
       <c r="E28" t="n">
-        <v>6.283049934743902</v>
+        <v>5.613660772171555</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.937521368548129</v>
+        <v>-3.185459288004613</v>
       </c>
       <c r="G28" t="n">
-        <v>1.949959974888837</v>
+        <v>1.706110638721579</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.215168823774794</v>
       </c>
       <c r="E29" t="n">
-        <v>5.967703867086207</v>
+        <v>5.487815838938128</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.891071944529366</v>
+        <v>-3.251664042743246</v>
       </c>
       <c r="G29" t="n">
-        <v>1.895009781437897</v>
+        <v>1.68805820653119</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.138091351216507</v>
       </c>
       <c r="E30" t="n">
-        <v>5.780313058203487</v>
+        <v>5.482574180642155</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.749587425302765</v>
+        <v>-3.119129499527247</v>
       </c>
       <c r="G30" t="n">
-        <v>1.801182024209683</v>
+        <v>1.616937186177629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.045165210355465</v>
       </c>
       <c r="E31" t="n">
-        <v>5.531111668097766</v>
+        <v>5.324072874534284</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.620743817062106</v>
+        <v>-3.128728736098246</v>
       </c>
       <c r="G31" t="n">
-        <v>1.639468875818056</v>
+        <v>1.440767087985044</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.940250153494251</v>
       </c>
       <c r="E32" t="n">
-        <v>5.118908977131126</v>
+        <v>4.934661699416365</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.435117813657557</v>
+        <v>-3.101919367791447</v>
       </c>
       <c r="G32" t="n">
-        <v>1.489590018317372</v>
+        <v>1.410909031175519</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.82550310589692</v>
       </c>
       <c r="E33" t="n">
-        <v>4.72680195262198</v>
+        <v>4.600406870938127</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.313365753125448</v>
+        <v>-3.159605970358617</v>
       </c>
       <c r="G33" t="n">
-        <v>1.337018361028845</v>
+        <v>1.234232088900556</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.702457448961846</v>
       </c>
       <c r="E34" t="n">
-        <v>4.317064561030756</v>
+        <v>4.122446192128572</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.003221393959399</v>
+        <v>-2.794090267514333</v>
       </c>
       <c r="G34" t="n">
-        <v>1.199356824604102</v>
+        <v>1.061901441368099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.574614945225535</v>
       </c>
       <c r="E35" t="n">
-        <v>3.954399627429594</v>
+        <v>3.890755624652287</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.867302095947786</v>
+        <v>-2.758677053180988</v>
       </c>
       <c r="G35" t="n">
-        <v>1.125054458000623</v>
+        <v>1.020952586972588</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.444392310404176</v>
       </c>
       <c r="E36" t="n">
-        <v>3.607631666347192</v>
+        <v>3.593209482024807</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.763069701894927</v>
+        <v>-2.528994954493234</v>
       </c>
       <c r="G36" t="n">
-        <v>1.028694920043228</v>
+        <v>0.9754647029007176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.313504670948166</v>
       </c>
       <c r="E37" t="n">
-        <v>3.227418095034635</v>
+        <v>3.185387241358572</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.607228259858354</v>
+        <v>-2.551678514382171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9048017329753946</v>
+        <v>0.9537210307746493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.183676365628887</v>
       </c>
       <c r="E38" t="n">
-        <v>2.872804114366546</v>
+        <v>3.002073142279237</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.523344039423163</v>
+        <v>-2.407332247340269</v>
       </c>
       <c r="G38" t="n">
-        <v>0.813374013610184</v>
+        <v>0.9580722048825699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.056558441862786</v>
       </c>
       <c r="E39" t="n">
-        <v>2.576332651971497</v>
+        <v>2.880692828399605</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.363489929254265</v>
+        <v>-2.327291137089268</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6796848905531004</v>
+        <v>0.7761218884364428</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9323056836147199</v>
       </c>
       <c r="E40" t="n">
-        <v>2.327069049956747</v>
+        <v>2.625676454561768</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.31492316560617</v>
+        <v>-2.314267500878666</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6090804730127453</v>
+        <v>0.7210869160114354</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8112358621934226</v>
       </c>
       <c r="E41" t="n">
-        <v>1.920499586360552</v>
+        <v>2.283258447745934</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.161468953098389</v>
+        <v>-2.078458139072302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5396385642822719</v>
+        <v>0.6906988381338168</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6950308585985684</v>
       </c>
       <c r="E42" t="n">
-        <v>1.64799068751358</v>
+        <v>1.889981595378786</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.065425963972226</v>
+        <v>-2.146499669928962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.497749822123892</v>
+        <v>0.6239552184772769</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5844981434642574</v>
       </c>
       <c r="E43" t="n">
-        <v>1.437116712734706</v>
+        <v>1.838046239833012</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.988827246020791</v>
+        <v>-1.819933501501809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4127037027994963</v>
+        <v>0.5556880169702202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4816263345730515</v>
       </c>
       <c r="E44" t="n">
-        <v>1.164291874977179</v>
+        <v>1.402787327443942</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.950191820752185</v>
+        <v>-1.804686094503785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4376689759401478</v>
+        <v>0.6913630417507954</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3882059100787961</v>
       </c>
       <c r="E45" t="n">
-        <v>1.003952267949589</v>
+        <v>1.253458618393685</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.887934167673127</v>
+        <v>-1.804297575032696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3665009916944774</v>
+        <v>0.5559667507194941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3037675562093088</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8273619344107239</v>
+        <v>1.136472173069347</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.832833933735708</v>
+        <v>-1.756058948708692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3185898927738872</v>
+        <v>0.4416578571660801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2286709537194768</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6644008883144709</v>
+        <v>0.8934157337818619</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.793620303665545</v>
+        <v>-1.659064483326802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2400882223109981</v>
+        <v>0.4227088415808714</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1628848100407908</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5421489977877668</v>
+        <v>0.8957187942572625</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.698878885263562</v>
+        <v>-1.595728490491254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2268120789402231</v>
+        <v>0.4372194644013844</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1046482173918754</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4469178130823553</v>
+        <v>0.8248496711431986</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.620028340173573</v>
+        <v>-1.595038670205852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1573378444138821</v>
+        <v>0.3814995510563889</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05237248025149176</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3674646663637393</v>
+        <v>0.760124279006018</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.568339392581205</v>
+        <v>-1.551121331876608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1005920444905963</v>
+        <v>0.3090001099733775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.005963869452303142</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2140683963202492</v>
+        <v>0.5532123489432998</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.530972602320236</v>
+        <v>-1.454783141142898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07203616832592898</v>
+        <v>0.2461563231239646</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0359767955881351</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1583820286124748</v>
+        <v>0.5415890906065122</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.473685192835998</v>
+        <v>-1.450567979345893</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05192220424813152</v>
+        <v>0.1850575193307279</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.07434520896898103</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0862241431084423</v>
+        <v>0.3252008229891594</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.420016442726906</v>
+        <v>-1.441988225186078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05812448760998253</v>
+        <v>0.1683158066746704</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1094395975545362</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0007725025401936915</v>
+        <v>0.1235531182874537</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.439622952801649</v>
+        <v>-1.454143944273667</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04040331835325225</v>
+        <v>0.1405949119164712</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1418448044187259</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02658129597678776</v>
+        <v>0.2004555767359093</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.39277128609657</v>
+        <v>-1.46526157836943</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.005327390154148189</v>
+        <v>0.1594591485276119</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1724325256642369</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09948938391322036</v>
+        <v>0.1748736737910655</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.425388014127026</v>
+        <v>-1.418929564080941</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05386365776840514</v>
+        <v>0.06820647639662793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2014409327834146</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1200260230200042</v>
+        <v>0.05393494248140011</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.398688736502379</v>
+        <v>-1.40363458327013</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05789279375900282</v>
+        <v>0.1234622401066182</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2300604100152915</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1022511047375356</v>
+        <v>-0.02729856269264348</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.372741491072164</v>
+        <v>-1.335492415501806</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09817439493415155</v>
+        <v>0.04521307680390289</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2595713243451394</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1289229359317282</v>
+        <v>-0.003278056680274713</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.416130028174667</v>
+        <v>-1.45596638725579</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1017790261337326</v>
+        <v>0.08211815711257438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2905649847480249</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1783106528107254</v>
+        <v>-0.2009033345188269</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.46031756136371</v>
+        <v>-1.450990044454202</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1332893580565675</v>
+        <v>0.03979637127370338</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3239957086975535</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1621709318626183</v>
+        <v>-0.2141282445527551</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.512953715767068</v>
+        <v>-1.402963670525707</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1306532808916624</v>
+        <v>0.07211423817255273</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3606701595797563</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1115218990241061</v>
+        <v>-0.1958659996495647</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.533020106032079</v>
+        <v>-1.262994194260148</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1619806366114729</v>
+        <v>-0.007297433940044415</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4007044278322877</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1496712175133436</v>
+        <v>-0.2173461860432779</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.590720431814475</v>
+        <v>-1.337415495395593</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1422637308942384</v>
+        <v>0.04089971777794062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4433908545486329</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1453188235640694</v>
+        <v>-0.3524405663395889</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.692253926872725</v>
+        <v>-1.433629872231922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1388902596311449</v>
+        <v>0.01230602653131492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4882138060443337</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.08360338996664045</v>
+        <v>-0.2535699849560217</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.788576259668838</v>
+        <v>-1.545774767224234</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1378064305885636</v>
+        <v>0.04278010322435488</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.533460139470189</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.06750453370387546</v>
+        <v>-0.3201092811858511</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.884691219434858</v>
+        <v>-1.650010820801154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1674528449232565</v>
+        <v>-0.1169703204294965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5775961041095523</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.01789663546057216</v>
+        <v>-0.3201977196839796</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.958243993526613</v>
+        <v>-1.612855673015016</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1926608664932537</v>
+        <v>-0.12801293428202</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6196139833155103</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02082905806819228</v>
+        <v>-0.3975643277674405</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.028170179274424</v>
+        <v>-1.665682122669519</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.178660137358502</v>
+        <v>-0.145542664452436</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6585044946811085</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01225662295649832</v>
+        <v>-0.2375949425906366</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.073809933594805</v>
+        <v>-1.828096679839406</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1630742243848821</v>
+        <v>-0.1199302654737548</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6924785913193995</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.002135065332048853</v>
+        <v>-0.2213070109180797</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.095706695810737</v>
+        <v>-1.678693560466585</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1949194027592518</v>
+        <v>-0.09521140028650948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7203949424076196</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01206022849858545</v>
+        <v>-0.3552016772432274</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.194823685147711</v>
+        <v>-1.883712296748677</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2072574881291882</v>
+        <v>-0.1784905794103661</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7411283336854493</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.03914383215576751</v>
+        <v>-0.2191777778355523</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.238160988913367</v>
+        <v>-1.965126338443038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2455544074221988</v>
+        <v>-0.2765371579596466</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7531904390635598</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0561379759658141</v>
+        <v>-0.04611156596693733</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.241913830837398</v>
+        <v>-1.936543625768594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2865965796812524</v>
+        <v>-0.3326968241125776</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7562945924492585</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08930363260534324</v>
+        <v>-0.05680408535100753</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.33947613236934</v>
+        <v>-2.103668600325006</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3087610970742768</v>
+        <v>-0.3148859205101808</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7499657693245695</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1450997860349323</v>
+        <v>-0.102339543235664</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.304574641483786</v>
+        <v>-2.084857426812742</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3103920249639011</v>
+        <v>-0.2855633740548411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7346451116612568</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2198358062395789</v>
+        <v>0.1002944032003432</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.301747049226382</v>
+        <v>-2.0912798915389</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2883995052017196</v>
+        <v>-0.268259314534822</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7104898305017295</v>
       </c>
       <c r="E77" t="n">
-        <v>0.328448040672166</v>
+        <v>0.1104855677881265</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.267363380995387</v>
+        <v>-1.955390174680109</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3165479543543192</v>
+        <v>-0.2630938963234427</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6786326974420328</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4401775796836125</v>
+        <v>0.2859896326017035</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.256953864805328</v>
+        <v>-1.993602924919728</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2790793073403325</v>
+        <v>-0.2400547526799615</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6396333966118323</v>
       </c>
       <c r="E79" t="n">
-        <v>0.612419178797264</v>
+        <v>0.4999327282259732</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.160368656197536</v>
+        <v>-1.954642411930416</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2699469650473839</v>
+        <v>-0.2667479310978403</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.593564204066918</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7241676253496898</v>
+        <v>0.5111540488367841</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.172678075295665</v>
+        <v>-2.02651119503367</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2764414004133972</v>
+        <v>-0.2428744159685678</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5409906078966953</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8891627569028977</v>
+        <v>0.6837536713876867</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.077993989437297</v>
+        <v>-1.807960758617245</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2724293422017485</v>
+        <v>-0.2053630745072088</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4826477522212066</v>
       </c>
       <c r="E82" t="n">
-        <v>1.011864768889042</v>
+        <v>0.8718916330994229</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102762868120035</v>
+        <v>-1.949862463586741</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1920442366890614</v>
+        <v>-0.1188647340514759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4180870622658995</v>
       </c>
       <c r="E83" t="n">
-        <v>1.190580066065697</v>
+        <v>0.9823427783724055</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.000324250777492</v>
+        <v>-1.97053328524241</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2308949639565592</v>
+        <v>-0.1306435221608344</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.347953345832653</v>
       </c>
       <c r="E84" t="n">
-        <v>1.433424252957674</v>
+        <v>1.122741638794394</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.884629617446506</v>
+        <v>-1.712959514006968</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1790419477021463</v>
+        <v>-0.1754470752333933</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.273410375556287</v>
       </c>
       <c r="E85" t="n">
-        <v>1.587432273439942</v>
+        <v>1.285946653161347</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.747426741370677</v>
+        <v>-1.564634734390638</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1142512940525536</v>
+        <v>-0.2357816484186646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1953624024443929</v>
       </c>
       <c r="E86" t="n">
-        <v>1.712379403437196</v>
+        <v>1.388781109023099</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.58118798155758</v>
+        <v>-1.265116108294555</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1512033382533347</v>
+        <v>-0.2019694758617825</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1162217183100207</v>
       </c>
       <c r="E87" t="n">
-        <v>1.864721730551265</v>
+        <v>1.563876526983255</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.443144024868515</v>
+        <v>-1.20388007234905</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.07648561566899061</v>
+        <v>-0.1500078937269085</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03906340130020945</v>
       </c>
       <c r="E88" t="n">
-        <v>1.993227747697344</v>
+        <v>1.674622263943107</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.321981452670483</v>
+        <v>-1.129567947014743</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03144907289791402</v>
+        <v>-0.0006322207845416382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03345296731795448</v>
       </c>
       <c r="E89" t="n">
-        <v>2.077937800728851</v>
+        <v>1.585212772097256</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.178398806315869</v>
+        <v>-0.8867780430629973</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01323501172818676</v>
+        <v>-0.09320415133933163</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09771426734802485</v>
       </c>
       <c r="E90" t="n">
-        <v>2.164616677704902</v>
+        <v>1.631397185581972</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.106219573588151</v>
+        <v>-0.968432393503997</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.008714279672130154</v>
+        <v>-0.04065704535477944</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1501772096588902</v>
       </c>
       <c r="E91" t="n">
-        <v>2.192369288338292</v>
+        <v>1.585506143942772</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.866375586505098</v>
+        <v>-0.5490271492656392</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03165339632462461</v>
+        <v>-0.08262385735978307</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1879989389357402</v>
       </c>
       <c r="E92" t="n">
-        <v>2.195729951267174</v>
+        <v>1.503500479191965</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7258571816304664</v>
+        <v>-0.5250121325393612</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0259237254810688</v>
+        <v>-0.1386060365957803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2087108962564457</v>
       </c>
       <c r="E93" t="n">
-        <v>2.191792303378088</v>
+        <v>1.514643729956152</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5139103563811931</v>
+        <v>-0.2531241329413189</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05195209036129218</v>
+        <v>-0.09419588235972397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2114215719122427</v>
       </c>
       <c r="E94" t="n">
-        <v>2.170890321785932</v>
+        <v>1.53958521619041</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3579548591780681</v>
+        <v>-0.08887188477239018</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0100798160611845</v>
+        <v>-0.1737685735309826</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1973517982533142</v>
       </c>
       <c r="E95" t="n">
-        <v>2.067972306791465</v>
+        <v>1.499076724523511</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1804276874797179</v>
+        <v>-0.07261627889570094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01575634779967868</v>
+        <v>-0.06197438292780082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1694366716719664</v>
       </c>
       <c r="E96" t="n">
-        <v>1.997409363857128</v>
+        <v>1.387167258912424</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.03245422217319481</v>
+        <v>0.1217093280816443</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01029336430423088</v>
+        <v>-0.1594939900123711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1330714134420062</v>
       </c>
       <c r="E97" t="n">
-        <v>1.822305407007498</v>
+        <v>1.276746609673279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1310051291159615</v>
+        <v>0.2291255080671285</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.006713129931719776</v>
+        <v>-0.05912666328806414</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09285137060168562</v>
       </c>
       <c r="E98" t="n">
-        <v>1.656831487723043</v>
+        <v>1.11714195706117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1902979577853472</v>
+        <v>0.3788683532568977</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05745914015783495</v>
+        <v>-0.07635387280281303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05351341155777091</v>
       </c>
       <c r="E99" t="n">
-        <v>1.473548494598221</v>
+        <v>1.042783477755431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2569683869606774</v>
+        <v>0.4545503604311805</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07768410979880054</v>
+        <v>-0.0996674807508308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01505106504416483</v>
       </c>
       <c r="E100" t="n">
-        <v>1.272450328426266</v>
+        <v>1.01497841394384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2761662501819993</v>
+        <v>0.3621424985384357</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09498268003272897</v>
+        <v>-0.1371824817362503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01975007182913666</v>
       </c>
       <c r="E101" t="n">
-        <v>1.143397212433144</v>
+        <v>0.8820401032398338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3074606701852654</v>
+        <v>0.3994214602219538</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1702590899569743</v>
+        <v>-0.296050960091524</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05545804201918231</v>
       </c>
       <c r="E102" t="n">
-        <v>1.000605633196272</v>
+        <v>0.8883729096265089</v>
       </c>
       <c r="F102" t="n">
-        <v>0.277810596326512</v>
+        <v>0.429740007142423</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1883011534958586</v>
+        <v>-0.1845025675210717</v>
       </c>
     </row>
   </sheetData>
